--- a/Data/Processing/2024-02-02/BALKRISIND.xlsx
+++ b/Data/Processing/2024-02-02/BALKRISIND.xlsx
@@ -616,7 +616,7 @@
         <v>2258.39</v>
       </c>
       <c r="C2">
-        <v>2280.11</v>
+        <v>2280.1</v>
       </c>
       <c r="D2">
         <v>2216.56</v>
@@ -3613,7 +3613,7 @@
         <v>45054</v>
       </c>
       <c r="B62">
-        <v>2120.87</v>
+        <v>2120.86</v>
       </c>
       <c r="C62">
         <v>2165.57</v>
@@ -3643,7 +3643,7 @@
         <v>-0.18</v>
       </c>
       <c r="L62">
-        <v>-4.17</v>
+        <v>-4.18</v>
       </c>
       <c r="M62">
         <v>-0.21</v>
@@ -4819,7 +4819,7 @@
         <v>2269.77</v>
       </c>
       <c r="D86">
-        <v>2233.36</v>
+        <v>2233.37</v>
       </c>
       <c r="E86">
         <v>2250.1</v>
@@ -5616,7 +5616,7 @@
         <v>2352.27</v>
       </c>
       <c r="C102">
-        <v>2408.95</v>
+        <v>2408.94</v>
       </c>
       <c r="D102">
         <v>2334.49</v>
